--- a/Sep19/all_countries/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/all_countries/Tables/income_no_tax_havens.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -416,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -453,164 +456,182 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.2150956608568527</v>
       </c>
       <c r="C2">
+        <v>1007534436142</v>
+      </c>
+      <c r="D2">
         <v>0.03340072514701866</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.02314187339880451</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.03722387099404274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.03033189225961232</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.01763847456075515</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.0171409301257789</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.08819237280377575</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.0857046506288944</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>-0.1999315794267103</v>
       </c>
       <c r="C3">
+        <v>-269766813</v>
+      </c>
+      <c r="D3">
         <v>0.1182154099626835</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.220418569686488</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1486562781314273</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2173171790485965</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.001869476515915335</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.006826231385330679</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.009347382579576683</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.03413115692665337</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.4401966017285495</v>
       </c>
       <c r="C4">
+        <v>20228669958</v>
+      </c>
+      <c r="D4">
         <v>-0.01636094210437773</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1150882735802923</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.002506424760144121</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.08580221068865383</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.002524192199836761</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.008899352632122867</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.01262096099918382</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.04449676316061433</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.05025911538875387</v>
       </c>
       <c r="C5">
+        <v>344467447608</v>
+      </c>
+      <c r="D5">
         <v>-0.3175830224664649</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.4766400973888733</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.3213308154760523</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.4281866317828602</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.1382119511605277</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.1459260661914838</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.6910597558026386</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.7296303309574194</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.4227566971012392</v>
       </c>
       <c r="C6">
+        <v>45733381438</v>
+      </c>
+      <c r="D6">
         <v>0.01270504901243751</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.03612755088393671</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.01223402892031497</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.02796945319268843</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001442548427604388</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.002578517222690498</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.007212742138021941</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.01289258611345249</v>
       </c>
     </row>

--- a/Sep19/all_countries/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/all_countries/Tables/income_no_tax_havens.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -477,16 +477,16 @@
         <v>0.02314187339880451</v>
       </c>
       <c r="F2">
+        <v>0.007444774198808549</v>
+      </c>
+      <c r="G2">
+        <v>0.00606637845192245</v>
+      </c>
+      <c r="H2">
         <v>0.03722387099404274</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.03033189225961232</v>
-      </c>
-      <c r="H2">
-        <v>0.01763847456075515</v>
-      </c>
-      <c r="I2">
-        <v>0.0171409301257789</v>
       </c>
       <c r="J2">
         <v>0.08819237280377575</v>
@@ -512,16 +512,16 @@
         <v>0.220418569686488</v>
       </c>
       <c r="F3">
+        <v>0.02973125562628548</v>
+      </c>
+      <c r="G3">
+        <v>0.0434634358097193</v>
+      </c>
+      <c r="H3">
         <v>0.1486562781314273</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.2173171790485965</v>
-      </c>
-      <c r="H3">
-        <v>0.001869476515915335</v>
-      </c>
-      <c r="I3">
-        <v>0.006826231385330679</v>
       </c>
       <c r="J3">
         <v>0.009347382579576683</v>
@@ -547,16 +547,16 @@
         <v>0.1150882735802923</v>
       </c>
       <c r="F4">
+        <v>-0.0005012849520288268</v>
+      </c>
+      <c r="G4">
+        <v>0.01716044213773076</v>
+      </c>
+      <c r="H4">
         <v>-0.002506424760144121</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.08580221068865383</v>
-      </c>
-      <c r="H4">
-        <v>0.002524192199836761</v>
-      </c>
-      <c r="I4">
-        <v>0.008899352632122867</v>
       </c>
       <c r="J4">
         <v>0.01262096099918382</v>
@@ -582,16 +582,16 @@
         <v>-0.4766400973888733</v>
       </c>
       <c r="F5">
+        <v>-0.06426616309521044</v>
+      </c>
+      <c r="G5">
+        <v>-0.08563732635657206</v>
+      </c>
+      <c r="H5">
         <v>-0.3213308154760523</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-0.4281866317828602</v>
-      </c>
-      <c r="H5">
-        <v>-0.1382119511605277</v>
-      </c>
-      <c r="I5">
-        <v>-0.1459260661914838</v>
       </c>
       <c r="J5">
         <v>-0.6910597558026386</v>
@@ -617,16 +617,16 @@
         <v>0.03612755088393671</v>
       </c>
       <c r="F6">
+        <v>0.002446805784062994</v>
+      </c>
+      <c r="G6">
+        <v>0.005593890638537687</v>
+      </c>
+      <c r="H6">
         <v>0.01223402892031497</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.02796945319268843</v>
-      </c>
-      <c r="H6">
-        <v>0.001442548427604388</v>
-      </c>
-      <c r="I6">
-        <v>0.002578517222690498</v>
       </c>
       <c r="J6">
         <v>0.007212742138021941</v>

--- a/Sep19/all_countries/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/all_countries/Tables/income_no_tax_havens.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -477,22 +477,22 @@
         <v>0.02314187339880451</v>
       </c>
       <c r="F2">
-        <v>0.007444774198808549</v>
+        <v>0.03722387099404274</v>
       </c>
       <c r="G2">
-        <v>0.00606637845192245</v>
+        <v>0.03033189225961232</v>
       </c>
       <c r="H2">
-        <v>0.03722387099404274</v>
+        <v>0.00448777491044025</v>
       </c>
       <c r="I2">
-        <v>0.03033189225961232</v>
+        <v>0.003109379163554153</v>
       </c>
       <c r="J2">
-        <v>0.08819237280377575</v>
+        <v>0.02243887455220134</v>
       </c>
       <c r="K2">
-        <v>0.0857046506288944</v>
+        <v>0.01554689581777085</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,22 +512,22 @@
         <v>0.220418569686488</v>
       </c>
       <c r="F3">
-        <v>0.02973125562628548</v>
+        <v>0.1486562781314273</v>
       </c>
       <c r="G3">
-        <v>0.0434634358097193</v>
+        <v>0.2173171790485965</v>
       </c>
       <c r="H3">
-        <v>0.1486562781314273</v>
+        <v>0.01588361176359958</v>
       </c>
       <c r="I3">
-        <v>0.2173171790485965</v>
+        <v>0.02961579194703341</v>
       </c>
       <c r="J3">
-        <v>0.009347382579576683</v>
+        <v>0.07941805881799788</v>
       </c>
       <c r="K3">
-        <v>0.03413115692665337</v>
+        <v>0.148078959735167</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,22 +547,22 @@
         <v>0.1150882735802923</v>
       </c>
       <c r="F4">
-        <v>-0.0005012849520288268</v>
+        <v>-0.002506424760144121</v>
       </c>
       <c r="G4">
-        <v>0.01716044213773076</v>
+        <v>0.08580221068865383</v>
       </c>
       <c r="H4">
-        <v>-0.002506424760144121</v>
+        <v>-0.002198282377523355</v>
       </c>
       <c r="I4">
-        <v>0.08580221068865383</v>
+        <v>0.01546344471223624</v>
       </c>
       <c r="J4">
-        <v>0.01262096099918382</v>
+        <v>-0.01099141188761677</v>
       </c>
       <c r="K4">
-        <v>0.04449676316061433</v>
+        <v>0.07731722356118119</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,22 +582,22 @@
         <v>-0.4766400973888733</v>
       </c>
       <c r="F5">
-        <v>-0.06426616309521044</v>
+        <v>-0.3213308154760523</v>
       </c>
       <c r="G5">
-        <v>-0.08563732635657206</v>
+        <v>-0.4281866317828602</v>
       </c>
       <c r="H5">
-        <v>-0.3213308154760523</v>
+        <v>-0.04267096339775148</v>
       </c>
       <c r="I5">
-        <v>-0.4281866317828602</v>
+        <v>-0.06404212665911307</v>
       </c>
       <c r="J5">
-        <v>-0.6910597558026386</v>
+        <v>-0.2133548169887574</v>
       </c>
       <c r="K5">
-        <v>-0.7296303309574194</v>
+        <v>-0.3202106332955653</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,22 +617,22 @@
         <v>0.03612755088393671</v>
       </c>
       <c r="F6">
-        <v>0.002446805784062994</v>
+        <v>0.01223402892031497</v>
       </c>
       <c r="G6">
-        <v>0.005593890638537687</v>
+        <v>0.02796945319268843</v>
       </c>
       <c r="H6">
-        <v>0.01223402892031497</v>
+        <v>0.001707070728044367</v>
       </c>
       <c r="I6">
-        <v>0.02796945319268843</v>
+        <v>0.004854155582519056</v>
       </c>
       <c r="J6">
-        <v>0.007212742138021941</v>
+        <v>0.00853535364022184</v>
       </c>
       <c r="K6">
-        <v>0.01289258611345249</v>
+        <v>0.0242707779125953</v>
       </c>
     </row>
   </sheetData>
